--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.2/avg_0.004_scores.xlsx
@@ -100,15 +100,15 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>hope</t>
@@ -1114,25 +1114,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.748898678414097</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L19">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1140,25 +1140,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.7450980392156863</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1166,25 +1166,25 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.7317073170731707</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1270,25 +1270,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.656441717791411</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="L25">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="M25">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1296,25 +1296,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.6421052631578947</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L26">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M26">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="10:17">
